--- a/pin_out.xlsx
+++ b/pin_out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Documents\PlatformIO\Projects\thermo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC31AC-C186-4CE6-AF8C-B41C45E5B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A138D35-BC95-4289-A6D6-F3113BDF5DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
   </bookViews>
@@ -671,9 +671,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9995C21-2F3C-47B8-B139-2C4E7CB4309E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
@@ -978,8 +981,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
